--- a/src/import/1/products-2020-11-05.xlsx
+++ b/src/import/1/products-2020-11-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="145">
   <si>
     <t>product_id</t>
   </si>
@@ -310,6 +310,159 @@
   </si>
   <si>
     <t>catalog/images/categories/parsedimages/144409.jpg</t>
+  </si>
+  <si>
+    <t>Напряжение</t>
+  </si>
+  <si>
+    <t>Вид лампы</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Цветовая температура</t>
+  </si>
+  <si>
+    <t>Мощность</t>
+  </si>
+  <si>
+    <t>Цвет колбы</t>
+  </si>
+  <si>
+    <t>Тип изделия</t>
+  </si>
+  <si>
+    <t>Назначение лампы</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Комплектация</t>
+  </si>
+  <si>
+    <t>Цвет корпуса</t>
+  </si>
+  <si>
+    <t>Цвет свечения</t>
+  </si>
+  <si>
+    <t>Тип цоколя</t>
+  </si>
+  <si>
+    <t>Особенности</t>
+  </si>
+  <si>
+    <t>Количество в упаковке</t>
+  </si>
+  <si>
+    <t>12 В</t>
+  </si>
+  <si>
+    <t>Галогенная</t>
+  </si>
+  <si>
+    <t>Ай Джи Ай ООО</t>
+  </si>
+  <si>
+    <t>3200 К</t>
+  </si>
+  <si>
+    <t>55 Вт</t>
+  </si>
+  <si>
+    <t>Прозрачный</t>
+  </si>
+  <si>
+    <t>Автолампы</t>
+  </si>
+  <si>
+    <t>Для ближнего и дальнего света, для противотуманных фар</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Лампа автомобильная - 1шт</t>
+  </si>
+  <si>
+    <t>Серебристый</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Отсутствие ослепляющего эффекта</t>
+  </si>
+  <si>
+    <t>1 шт</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>PGJ19-2</t>
+  </si>
+  <si>
+    <t>60 Вт</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>Накаливания</t>
+  </si>
+  <si>
+    <t>21 Вт</t>
+  </si>
+  <si>
+    <t>Для габаритных огней; Для противотуманных фар; Для стоп сигналов; Для фонарей заднего хода</t>
+  </si>
+  <si>
+    <t>Лампа автомобильная - 2шт</t>
+  </si>
+  <si>
+    <t>P21W</t>
+  </si>
+  <si>
+    <t>2 шт</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Для указателей поворота</t>
+  </si>
+  <si>
+    <t>PY21W</t>
+  </si>
+  <si>
+    <t>5 Вт</t>
+  </si>
+  <si>
+    <t>Для габаритных огней</t>
+  </si>
+  <si>
+    <t>W5W</t>
+  </si>
+  <si>
+    <t>Общая информация</t>
   </si>
 </sst>
 </file>
@@ -688,11 +841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1496,13 +1649,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1526,6 +1679,1723 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>110</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>110</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>111</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/import/1/products-2020-11-05.xlsx
+++ b/src/import/1/products-2020-11-05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mironov.matvey\Documents\GitHub\metroParser\src\import\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\metroParser\src\import\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="146">
   <si>
     <t>product_id</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Общая информация</t>
+  </si>
+  <si>
+    <t>101,102</t>
   </si>
 </sst>
 </file>
@@ -841,11 +844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1131,6 +1134,9 @@
       <c r="C3" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O3" s="6" t="s">
         <v>87</v>
       </c>
@@ -1160,6 +1166,9 @@
       <c r="C4" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O4" s="6" t="s">
         <v>88</v>
       </c>
@@ -1189,6 +1198,9 @@
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O5" s="6" t="s">
         <v>89</v>
       </c>
@@ -1218,6 +1230,9 @@
       <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O6" s="6" t="s">
         <v>90</v>
       </c>
@@ -1247,6 +1262,9 @@
       <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O7" s="6" t="s">
         <v>91</v>
       </c>
@@ -1276,6 +1294,9 @@
       <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O8" s="6" t="s">
         <v>92</v>
       </c>
@@ -1304,6 +1325,9 @@
       </c>
       <c r="C9" s="5" t="s">
         <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>93</v>
@@ -1651,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
